--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_0.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-276834.4728682037</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8732945.182477079</v>
+        <v>6889165.230378538</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33139445.582195</v>
+        <v>31295665.63009646</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.533577277536848e-10</v>
+        <v>1022234.818838398</v>
       </c>
     </row>
     <row r="11">
@@ -7990,7 +7990,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8771,22 +8771,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>281.0224045372727</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11381,10 +11381,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -22582,7 +22582,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N2" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>280.7198179344578</v>
@@ -22652,7 +22652,7 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K3" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>169.0363433314465</v>
@@ -22661,10 +22661,10 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N3" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>163.4487770454829</v>
@@ -22819,7 +22819,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>280.7198179344578</v>
@@ -22889,13 +22889,13 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>160.2368887416667</v>
@@ -22904,7 +22904,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>170.7777643849463</v>
@@ -23053,7 +23053,7 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M8" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>279.8839375878409</v>
@@ -23126,19 +23126,19 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K9" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>160.2368887416667</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>163.4487770454829</v>
@@ -23290,10 +23290,10 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>280.7198179344578</v>
@@ -23363,22 +23363,22 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>170.7777643849463</v>
@@ -23527,10 +23527,10 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>280.7198179344578</v>
@@ -23600,22 +23600,22 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>170.7777643849463</v>
@@ -23767,7 +23767,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>280.7198179344578</v>
@@ -23843,7 +23843,7 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>160.2368887416667</v>
@@ -23852,7 +23852,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>170.7777643849463</v>
@@ -24001,7 +24001,7 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
@@ -24077,7 +24077,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -24086,10 +24086,10 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>170.7777643849463</v>
@@ -24238,7 +24238,7 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
@@ -24326,7 +24326,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>170.7777643849463</v>
@@ -24475,10 +24475,10 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>280.7198179344578</v>
@@ -24557,7 +24557,7 @@
         <v>173.4035213848624</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>173.9674182222222</v>
@@ -24712,10 +24712,10 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>280.7198179344578</v>
@@ -24785,13 +24785,13 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>160.2368887416667</v>
@@ -24800,7 +24800,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>170.7777643849463</v>
@@ -24952,7 +24952,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>280.7198179344578</v>
@@ -25022,13 +25022,13 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>160.2368887416667</v>
@@ -25037,7 +25037,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>170.7777643849463</v>
@@ -25189,7 +25189,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>280.7198179344578</v>
@@ -25259,22 +25259,22 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>170.7777643849463</v>
@@ -25426,7 +25426,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>280.7198179344578</v>
@@ -25496,7 +25496,7 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -25660,7 +25660,7 @@
         <v>287.6350262633844</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
@@ -25733,10 +25733,10 @@
         <v>154.7419045333334</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -25900,7 +25900,7 @@
         <v>281.0224045372727</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>280.7198179344578</v>
@@ -25973,10 +25973,10 @@
         <v>168.166555548718</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>160.2368887416667</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>77353.2326544848</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>77552.5204922503</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>78505.00742249693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>155132.0673705486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>129317.6042760195</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>64896.30552165379</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>77821.27359204338</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>52006.81049751428</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>91309.88532555508</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>129979.8512284463</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>90274.19569137496</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>102333.6239380729</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>52201.01651238254</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>65083.54570679241</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.055902197957038e-11</v>
+        <v>65316.82576033543</v>
       </c>
     </row>
   </sheetData>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1089.482150063167</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1092.28902101761</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1105.704329894324</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2184.958695359839</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1821.37470811295</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>914.0324721359693</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1096.074275944273</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>732.4902886973846</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1286.054722895143</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1830.702129978117</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1271.467544948944</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1441.31864701511</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>735.2255846814445</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>916.6696578421471</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>919.9552923990909</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-22092.96372146339</v>
       </c>
     </row>
   </sheetData>
